--- a/data/unsupervised_collection.xlsx
+++ b/data/unsupervised_collection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>\cite{kangFaultAnomalyDetection2024}</t>
+          <t>\cite{najafiAttentionAutoencoderHybrid2024}</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Representation</t>
+          <t>Forecasting-based</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Custom Transformer</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aero engine</t>
+          <t>Benchmark data</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>Output residuals</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -607,37 +607,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>\cite{yanUnsupervisedLearningMachinery2024}</t>
+          <t>\cite{liuDeepAnomalyDetection2021}</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Reconstruction</t>
+          <t>Forecasting-based</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>Direct model</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>bearings</t>
+          <t>Benchmark data</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -657,24 +657,24 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>\cite{namBreakingTimeFrequencyGranularity2024}</t>
+          <t>\cite{minghuzhangDataDrivenAnomalyDetection2020}</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Reconstruction</t>
+          <t>Forecasting-based</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>LSTM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Benchmark data</t>
+          <t>IoT devices</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -721,22 +721,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>\cite{milkovicFRAnomalyFlowbasedRapid2024}</t>
+          <t>\cite{munirFuseADUnsupervisedAnomaly2019}</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Representation</t>
+          <t>Forecasting-based</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normalizing Flow</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2D input</t>
+          <t>1D input</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Univariate</t>
+          <t>Multivariate</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -835,7 +835,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>\cite{leeExplainableTimeSeries2024}</t>
+          <t>\cite{namBreakingTimeFrequencyGranularity2024}</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Representation</t>
+          <t>Reconstruction</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>Direct model</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>Transformer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Univariate</t>
+          <t>Multivariate</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Single entity</t>
+          <t>Fleet data</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>\cite{najafiAttentionAutoencoderHybrid2024}</t>
+          <t>\cite{yanUnsupervisedLearningMachinery2024}</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Forecasting-based</t>
+          <t>Reconstruction</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -912,17 +912,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Benchmark data</t>
+          <t>bearings</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -942,14 +942,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Static</t>
+          <t>Dynamic</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>\cite{yangSelfSupervisedLearningSignal2023}</t>
+          <t>\cite{baidyaAnomalyDetectionTime2023}</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>bearings</t>
+          <t>Benchmark data</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Latent + residuals</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Univariate</t>
+          <t>Multivariate</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1006,7 +1006,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>\cite{baidyaAnomalyDetectionTime2023}</t>
+          <t>\cite{liDCTGANDilatedConvolutional2023}</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>GAN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1063,7 +1063,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>\cite{yangDDMTDenoisingDiffusion2023}</t>
+          <t>\cite{wuDecomposeAutoTransformerTime2023}</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AE + Diffusion</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>Output residuals</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>\cite{liDCTGANDilatedConvolutional2023}</t>
+          <t>\cite{yangDDMTDenoisingDiffusion2023}</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GAN</t>
+          <t>AE + Diffusion</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1170,14 +1170,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>\cite{wuDecomposeAutoTransformerTime2023}</t>
+          <t>\cite{yangSelfSupervisedLearningSignal2023}</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Benchmark data</t>
+          <t>bearings</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>Latent space</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Multivariate</t>
+          <t>Univariate</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1227,14 +1227,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Static</t>
+          <t>Dynamic</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>\cite{xuAnomalyTransformerTime2022}</t>
+          <t>\cite{gargEvaluationAnomalyDetection2022}</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AE + Transformer</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1284,14 +1284,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Static</t>
+          <t>Dynamic</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>\cite{velasco-gallegoRADISRealtimeAnomaly2022}</t>
+          <t>\cite{tuliTranADDeepTransformer2022}</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1301,27 +1301,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Representation</t>
+          <t>Reconstruction</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Variable Autoencoder</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>Transformer</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Marine engine</t>
+          <t>Benchmark data</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>Output residuals</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>\cite{tuliTranADDeepTransformer2022}</t>
+          <t>\cite{xuAnomalyTransformerTime2022}</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>AE + Transformer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1462,37 +1462,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>\cite{neupaneTemporalAnomalyDetection2022}</t>
+          <t>\cite{arellano-espitiaDeepCompactClusteringBasedAnomaly2021}</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Representation</t>
+          <t>Reconstruction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Direct model</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TCN</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>bearings</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>Latent space</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1512,24 +1512,24 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Static</t>
+          <t>Dynamic</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>\cite{chiBearingFaultDiagnosis2022}</t>
+          <t>\cite{thillTemporalConvolutionalAutoencoder2021}</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Representation</t>
+          <t>Reconstruction</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1539,17 +1539,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transformer</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>bearings</t>
+          <t>ECG data</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Attention + residuals</t>
+          <t>Output residuals</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Single entity</t>
+          <t>Fleet data</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1576,12 +1576,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>\cite{gargEvaluationAnomalyDetection2022}</t>
+          <t>\cite{ellefsenOnlineFaultDetection2020}</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>Variable Autoencoder</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Benchmark data</t>
+          <t>Diesel engine</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Multivariate</t>
+          <t>Univariate</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Fleet data</t>
+          <t>Single entity</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>\cite{arellano-espitiaDeepCompactClusteringBasedAnomaly2021}</t>
+          <t>\cite{zhangDeepNeuralNetwork2019}</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1648,27 +1648,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>U-net</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>CNN+Att.+LSTM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>bearings</t>
+          <t>Power plant</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Latent space</t>
+          <t>Output residuals</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1D input</t>
+          <t>2D input</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1683,19 +1683,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>\cite{thillTemporalConvolutionalAutoencoder2021}</t>
+          <t>\cite{zhangDynamicConditionMonitoring2019}</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1710,17 +1710,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ECG data</t>
+          <t>3D printer</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Fleet data</t>
+          <t>Single entity</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1747,17 +1747,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>\cite{liuDeepAnomalyDetection2021}</t>
+          <t>\cite{shipmonTimeSeriesAnomaly2017}</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Forecasting-based</t>
+          <t>Reconstruction</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1767,17 +1767,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>Benchmark data</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>Output residuals</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Multivariate</t>
+          <t>Univariate</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1804,47 +1804,47 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>\cite{huNovelVehicleGearbox2021}</t>
+          <t>\cite{zhouAnomalyDetectionRobust2017}</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Representation</t>
+          <t>Reconstruction</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GMM</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gearbox</t>
+          <t>Benchmark data</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1D input</t>
+          <t>2D input</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Multivariate</t>
+          <t>Univariate</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1861,12 +1861,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>\cite{kimSemiSupervisedAutoencoderAuxiliary2020}</t>
+          <t>\cite{kangFaultAnomalyDetection2024}</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1876,22 +1876,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>Custom Transformer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>Transformer</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Chemical plant</t>
+          <t>bearings</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1911,44 +1911,44 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>\cite{minghuzhangDataDrivenAnomalyDetection2020}</t>
+          <t>\cite{leeExplainableTimeSeries2024}</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Forecasting-based</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Direct model</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>Transformer</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>IoT devices</t>
+          <t>Benchmark data</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>Output residuals</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1958,59 +1958,59 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Multivariate</t>
+          <t>Univariate</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Fleet data</t>
+          <t>Single entity</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Static</t>
+          <t>Dynamic</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>\cite{ellefsenOnlineFaultDetection2020}</t>
+          <t>\cite{milkovicFRAnomalyFlowbasedRapid2024}</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Reconstruction</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Variable Autoencoder</t>
+          <t>Normalizing Flow</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Diesel engine</t>
+          <t>Benchmark data</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>Output residuals</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1D input</t>
+          <t>2D input</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2025,49 +2025,49 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Dynamic</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>\cite{zhangDeepNeuralNetwork2019}</t>
+          <t>\cite{chiBearingFaultDiagnosis2022}</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Reconstruction</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>U-net</t>
+          <t>Autoencoder</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ensemble (CNN + Attention + LSTM)</t>
+          <t>Transformer</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Power plant</t>
+          <t>bearings</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>Attention + Res.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2D input</t>
+          <t>1D input</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2089,37 +2089,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>\cite{zhangDynamicConditionMonitoring2019}</t>
+          <t>\cite{neupaneTemporalAnomalyDetection2022}</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Reconstruction</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>Direct model</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>TCN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3D printer</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2146,12 +2146,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>\cite{songUnsupervisedFaultDiagnosis2019}</t>
+          <t>\cite{velasco-gallegoRADISRealtimeAnomaly2022}</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2161,22 +2161,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t>Variable Autoencoder</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>IMMSC</t>
+          <t>LSTM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>bearings</t>
+          <t>Marine engine</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2196,44 +2196,44 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Static</t>
+          <t>Dynamic</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>\cite{munirFuseADUnsupervisedAnomaly2019}</t>
+          <t>\cite{huNovelVehicleGearbox2021}</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Forecasting-based</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Autoencoder</t>
+          <t>Shallow learning</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>Shallow learning</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Benchmark data</t>
+          <t>Gearbox</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2260,17 +2260,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>\cite{zhangDeepNeuralNetwork2018}</t>
+          <t>\cite{kimSemiSupervisedAutoencoderAuxiliary2020}</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Reconstruction</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2280,22 +2280,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ensemble (CNN + Attention + LSTM)</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Power plant</t>
+          <t>Chemical plant</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2D input</t>
+          <t>1D input</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2310,19 +2310,19 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Static</t>
+          <t>Dynamic</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>\cite{helsenFleetwideConditionMonitoring2018}</t>
+          <t>\cite{songUnsupervisedFaultDiagnosis2019}</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2332,22 +2332,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t>Shallow learning</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOPA</t>
+          <t>Shallow learning</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wind turbine</t>
+          <t>bearings</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Not addressed</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Fleet data</t>
+          <t>Single entity</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2374,37 +2374,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>\cite{shipmonTimeSeriesAnomaly2017}</t>
+          <t>\cite{helsenFleetwideConditionMonitoring2018}</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Reconstruction</t>
+          <t>Representation</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Direct model</t>
+          <t>Shallow learning</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>Shallow learning</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Benchmark data</t>
+          <t>Wind turbine</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Output residuals</t>
+          <t>\texttimes</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2414,72 +2414,15 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Univariate</t>
+          <t>Multivariate</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Single entity</t>
+          <t>Fleet data</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
-        <is>
-          <t>Static</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>\cite{zhouAnomalyDetectionRobust2017}</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Reconstruction</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Autoencoder</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Benchmark data</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Not addressed</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2D input</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Univariate</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Single entity</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>Static</t>
         </is>
